--- a/PM Baseline Cost.xlsx
+++ b/PM Baseline Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgf834\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Documents\GitHub\capstone-cra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C81EA5-F03B-4E2F-9D33-16DEB42E7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F497A2-480D-4B66-A7B4-44F2C63AF8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project A" sheetId="1" r:id="rId1"/>
@@ -338,13 +338,13 @@
     <t>sub-project-14</t>
   </si>
   <si>
-    <t xml:space="preserve">Order #: </t>
-  </si>
-  <si>
     <t>Requirement Title</t>
   </si>
   <si>
     <t>Deliver</t>
+  </si>
+  <si>
+    <t>OrderNum</t>
   </si>
 </sst>
 </file>
@@ -402,14 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -431,9 +430,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -471,7 +470,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -577,7 +576,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -731,29 +730,29 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -773,15 +772,15 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>164946</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -805,15 +804,15 @@
       <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>6612.54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>164946</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -837,15 +836,15 @@
       <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>5582.68</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>164946</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -869,15 +868,15 @@
       <c r="H4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>48930</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>164946</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -901,15 +900,15 @@
       <c r="H5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>921347.24</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>164946</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -933,15 +932,15 @@
       <c r="H6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>125139.64</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>165847</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -965,15 +964,15 @@
       <c r="H7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>11740.26474609375</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>165847</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -997,15 +996,15 @@
       <c r="H8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>12390.94</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>165847</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1029,15 +1028,15 @@
       <c r="H9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>10546.861044921876</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>165847</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1061,15 +1060,15 @@
       <c r="H10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>7707.64</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>165847</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1093,15 +1092,15 @@
       <c r="H11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>10485</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>165847</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1125,15 +1124,15 @@
       <c r="H12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>42582.764980212873</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>165857</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1157,15 +1156,15 @@
       <c r="H13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>35156.205000000002</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>165857</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1189,15 +1188,15 @@
       <c r="H14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>11740.26474609375</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>165881</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1221,15 +1220,15 @@
       <c r="H15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>13211.1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>165881</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1253,15 +1252,15 @@
       <c r="H16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>1051.9950000000001</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>165881</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1285,15 +1284,15 @@
       <c r="H17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>47909.960560658947</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>165881</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1317,15 +1316,15 @@
       <c r="H18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>5592</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>165881</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1349,15 +1348,15 @@
       <c r="H19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>17605.48</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>165881</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1381,15 +1380,15 @@
       <c r="H20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>4996.1025</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>165881</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1413,15 +1412,15 @@
       <c r="H21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>6011.4000000000005</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>165881</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1445,15 +1444,15 @@
       <c r="H22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>5022.3150000000005</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>165881</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1477,15 +1476,15 @@
       <c r="H23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>11184</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>165886</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1509,15 +1508,15 @@
       <c r="H24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>11740.26474609375</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>165886</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1541,15 +1540,15 @@
       <c r="H25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>9868.8776904296883</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>165886</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1573,15 +1572,15 @@
       <c r="H26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>29405.694462890628</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>165886</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1605,15 +1604,15 @@
       <c r="H27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>11184</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>165886</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1637,15 +1636,15 @@
       <c r="H28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>237053.271640625</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>165886</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1669,15 +1668,15 @@
       <c r="H29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>11559.7125</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>165906</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1701,15 +1700,15 @@
       <c r="H30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>5022.3150000000005</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>165906</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1733,15 +1732,15 @@
       <c r="H31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>9320</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>165907</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1765,15 +1764,15 @@
       <c r="H32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>17605.48</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>165907</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1797,15 +1796,15 @@
       <c r="H33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>52232.074179687501</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>165907</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1829,15 +1828,15 @@
       <c r="H34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>48687.952101027171</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>165907</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1861,15 +1860,15 @@
       <c r="H35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>44003.410299146402</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>165907</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1893,15 +1892,15 @@
       <c r="H36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>12483.673544921876</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>165907</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1925,15 +1924,15 @@
       <c r="H37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>7812.0235449218753</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>165907</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1957,15 +1956,15 @@
       <c r="H38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <v>6011.4000000000005</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>165940</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1989,15 +1988,15 @@
       <c r="H39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>17075.871455078126</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>165943</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2021,15 +2020,15 @@
       <c r="H40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <v>48253.68711633412</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>165943</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2053,15 +2052,15 @@
       <c r="H41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>23102.648544921874</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>165943</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2085,15 +2084,15 @@
       <c r="H42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>53922.055723665122</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>165944</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2117,15 +2116,15 @@
       <c r="H43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <v>5504.625</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>165944</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2149,15 +2148,15 @@
       <c r="H44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <v>5022.3150000000005</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>165944</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2181,15 +2180,15 @@
       <c r="H45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <v>10997.6</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>165966</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2213,15 +2212,15 @@
       <c r="H46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <v>144487.28648437501</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>165966</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2245,15 +2244,15 @@
       <c r="H47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <v>11740.26474609375</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>165966</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2277,15 +2276,15 @@
       <c r="H48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <v>6011.4000000000005</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>165966</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2309,15 +2308,15 @@
       <c r="H49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <v>11184</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>165966</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2341,15 +2340,15 @@
       <c r="H50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <v>45072.548111177806</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>165966</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2373,15 +2372,15 @@
       <c r="H51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="7">
         <v>6311.97</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>165966</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2405,15 +2404,15 @@
       <c r="H52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <v>16235.882563476564</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>165966</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2437,15 +2436,15 @@
       <c r="H53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <v>80608.097500000003</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>165966</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2469,15 +2468,15 @@
       <c r="H54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <v>27960</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>165966</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2501,15 +2500,15 @@
       <c r="H55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>11808.44</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>165966</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2533,15 +2532,15 @@
       <c r="H56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <v>5022.3150000000005</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>166217</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2565,15 +2564,15 @@
       <c r="H57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <v>51315.551042920568</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>166217</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2597,15 +2596,15 @@
       <c r="H58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <v>16681.635000000002</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>166217</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2629,15 +2628,15 @@
       <c r="H59" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="7">
         <v>13225.08</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>166217</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2661,15 +2660,15 @@
       <c r="H60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <v>5825</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>166217</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2693,15 +2692,15 @@
       <c r="H61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="7">
         <v>53505.785567322659</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>166217</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2725,15 +2724,15 @@
       <c r="H62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="7">
         <v>12122.99</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>166417</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2757,15 +2756,15 @@
       <c r="H63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <v>7714.63</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>166417</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2789,15 +2788,15 @@
       <c r="H64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <v>28914.833999999999</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>166417</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2821,15 +2820,15 @@
       <c r="H65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="7">
         <v>139965.43</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>166417</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2853,15 +2852,15 @@
       <c r="H66" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="7">
         <v>71635.850000000006</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>166417</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2885,15 +2884,15 @@
       <c r="H67" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="7">
         <v>622680.85</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>166417</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2917,15 +2916,15 @@
       <c r="H68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="7">
         <v>50095</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>166417</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2949,15 +2948,15 @@
       <c r="H69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <v>98307.36</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>166417</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2981,15 +2980,15 @@
       <c r="H70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="7">
         <v>85963.02</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>166417</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3013,15 +3012,15 @@
       <c r="H71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="7">
         <v>5510.45</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>166331</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3045,15 +3044,15 @@
       <c r="H72" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="7">
         <v>7714.63</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>166331</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3077,15 +3076,15 @@
       <c r="H73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="7">
         <v>6672.6540000000005</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
         <v>166331</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -3109,15 +3108,15 @@
       <c r="H74" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="7">
         <v>143271.70000000001</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>166331</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3141,15 +3140,15 @@
       <c r="H75" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="7">
         <v>30858.52</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>166331</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3173,15 +3172,15 @@
       <c r="H76" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="7">
         <v>87065.11</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>166331</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -3205,7 +3204,7 @@
       <c r="H77" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="7">
         <v>7714.63</v>
       </c>
       <c r="J77" s="1" t="s">
